--- a/GTD.xlsx
+++ b/GTD.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Week 3</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Time (H)</t>
+  </si>
+  <si>
+    <t>Cook issue</t>
   </si>
 </sst>
 </file>
@@ -1019,6 +1022,57 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,21 +1085,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -1057,45 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -1638,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1701,37 +1704,37 @@
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54">
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41">
         <f>SUM(J9:AF9)</f>
         <v>184</v>
       </c>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="65"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="56"/>
     </row>
     <row r="6" spans="2:32" ht="17.25" customHeight="1">
       <c r="C6" s="18"/>
@@ -1740,38 +1743,38 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58" t="s">
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="58" t="s">
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="59"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="50"/>
     </row>
     <row r="7" spans="2:32" ht="17.25" customHeight="1">
       <c r="C7" s="4"/>
@@ -1780,30 +1783,30 @@
       <c r="F7" s="19"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="64"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="55"/>
     </row>
     <row r="8" spans="2:32" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="D8" s="6"/>
@@ -1976,13 +1979,13 @@
       </c>
     </row>
     <row r="10" spans="2:32" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="43" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -2023,8 +2026,8 @@
       <c r="AF10" s="32"/>
     </row>
     <row r="11" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B11" s="50"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="44"/>
       <c r="E11" s="14" t="s">
         <v>48</v>
@@ -2064,8 +2067,8 @@
       <c r="AF11" s="33"/>
     </row>
     <row r="12" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="44"/>
       <c r="E12" s="14" t="s">
         <v>49</v>
@@ -2105,9 +2108,9 @@
       <c r="AF12" s="33"/>
     </row>
     <row r="13" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="50"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2138,16 +2141,16 @@
       <c r="AF13" s="33"/>
     </row>
     <row r="14" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="50"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="46" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>29</v>
@@ -2156,7 +2159,9 @@
         <v>4</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="29">
+        <v>3</v>
+      </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -2181,13 +2186,21 @@
       <c r="AF14" s="33"/>
     </row>
     <row r="15" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="50"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="14">
+        <v>8</v>
+      </c>
       <c r="I15" s="26"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -2214,9 +2227,9 @@
       <c r="AF15" s="33"/>
     </row>
     <row r="16" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="50"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -2247,9 +2260,9 @@
       <c r="AF16" s="33"/>
     </row>
     <row r="17" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -2280,9 +2293,9 @@
       <c r="AF17" s="33"/>
     </row>
     <row r="18" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B18" s="50"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -2313,8 +2326,8 @@
       <c r="AF18" s="33"/>
     </row>
     <row r="19" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B19" s="50"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="44"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -2346,8 +2359,8 @@
       <c r="AF19" s="33"/>
     </row>
     <row r="20" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B20" s="50"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="44"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -2379,9 +2392,9 @@
       <c r="AF20" s="33"/>
     </row>
     <row r="21" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B21" s="50"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="48"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2412,11 +2425,11 @@
       <c r="AF21" s="35"/>
     </row>
     <row r="22" spans="2:32" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="50"/>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="60" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -2433,7 +2446,9 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="30">
+        <v>2</v>
+      </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
@@ -2457,8 +2472,8 @@
       <c r="AF22" s="36"/>
     </row>
     <row r="23" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B23" s="50"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="44"/>
       <c r="E23" s="14" t="s">
         <v>31</v>
@@ -2498,8 +2513,8 @@
       <c r="AF23" s="33"/>
     </row>
     <row r="24" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B24" s="50"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="44"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -2531,9 +2546,9 @@
       <c r="AF24" s="33"/>
     </row>
     <row r="25" spans="2:32" s="17" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B25" s="50"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="45"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -2564,9 +2579,9 @@
       <c r="AF25" s="33"/>
     </row>
     <row r="26" spans="2:32" s="17" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B26" s="50"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="47" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="43" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="14" t="s">
@@ -2579,11 +2594,13 @@
         <v>40</v>
       </c>
       <c r="H26" s="14">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="30">
+        <v>1</v>
+      </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
@@ -2607,8 +2624,8 @@
       <c r="AF26" s="33"/>
     </row>
     <row r="27" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B27" s="50"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="44"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -2640,8 +2657,8 @@
       <c r="AF27" s="33"/>
     </row>
     <row r="28" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B28" s="50"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="44"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -2673,9 +2690,9 @@
       <c r="AF28" s="33"/>
     </row>
     <row r="29" spans="2:32" s="17" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B29" s="50"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="48"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -2706,9 +2723,9 @@
       <c r="AF29" s="33"/>
     </row>
     <row r="30" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B30" s="50"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="47" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="43" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="14" t="s">
@@ -2749,8 +2766,8 @@
       <c r="AF30" s="33"/>
     </row>
     <row r="31" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B31" s="50"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="44"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -2782,8 +2799,8 @@
       <c r="AF31" s="33"/>
     </row>
     <row r="32" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B32" s="50"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="44"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -2815,9 +2832,9 @@
       <c r="AF32" s="33"/>
     </row>
     <row r="33" spans="2:32" s="17" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B33" s="50"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="48"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -2848,11 +2865,11 @@
       <c r="AF33" s="35"/>
     </row>
     <row r="34" spans="2:32" s="17" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B34" s="50"/>
-      <c r="C34" s="40" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2893,8 +2910,8 @@
       <c r="AF34" s="36"/>
     </row>
     <row r="35" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B35" s="50"/>
-      <c r="C35" s="41"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="44"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -2926,8 +2943,8 @@
       <c r="AF35" s="33"/>
     </row>
     <row r="36" spans="2:32" ht="15">
-      <c r="B36" s="50"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="44"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -2959,9 +2976,9 @@
       <c r="AF36" s="33"/>
     </row>
     <row r="37" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B37" s="50"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="45"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -2992,9 +3009,9 @@
       <c r="AF37" s="33"/>
     </row>
     <row r="38" spans="2:32" ht="15">
-      <c r="B38" s="50"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="46" t="s">
+      <c r="B38" s="63"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="42" t="s">
         <v>47</v>
       </c>
       <c r="E38" s="14"/>
@@ -3027,9 +3044,9 @@
       <c r="AF38" s="33"/>
     </row>
     <row r="39" spans="2:32" ht="15">
-      <c r="B39" s="50"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="46"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -3060,9 +3077,9 @@
       <c r="AF39" s="33"/>
     </row>
     <row r="40" spans="2:32" ht="15">
-      <c r="B40" s="50"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="46"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="42"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -3093,9 +3110,9 @@
       <c r="AF40" s="33"/>
     </row>
     <row r="41" spans="2:32" ht="15">
-      <c r="B41" s="50"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="46"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -3126,9 +3143,9 @@
       <c r="AF41" s="33"/>
     </row>
     <row r="42" spans="2:32" ht="15">
-      <c r="B42" s="50"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="47"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -3159,8 +3176,8 @@
       <c r="AF42" s="33"/>
     </row>
     <row r="43" spans="2:32" ht="15">
-      <c r="B43" s="50"/>
-      <c r="C43" s="41"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="44"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -3192,8 +3209,8 @@
       <c r="AF43" s="33"/>
     </row>
     <row r="44" spans="2:32" ht="15">
-      <c r="B44" s="50"/>
-      <c r="C44" s="41"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="44"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -3225,9 +3242,9 @@
       <c r="AF44" s="33"/>
     </row>
     <row r="45" spans="2:32" ht="15.75" thickBot="1">
-      <c r="B45" s="51"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="48"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -3268,7 +3285,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="37">
         <f t="shared" ref="H46:I46" si="0">SUM(H10:H45)</f>
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I46" s="37">
         <f t="shared" si="0"/>
@@ -3276,11 +3293,11 @@
       </c>
       <c r="J46" s="37">
         <f>SUM(J10:J45)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K46" s="37">
         <f t="shared" ref="K46:AF46" si="1">SUM(K10:K45)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L46" s="37">
         <f t="shared" si="1"/>
@@ -3370,6 +3387,17 @@
   </sheetData>
   <autoFilter ref="C9:H45"/>
   <mergeCells count="24">
+    <mergeCell ref="C34:C45"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="B10:B45"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C22:C33"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D33"/>
     <mergeCell ref="I5:T5"/>
     <mergeCell ref="U5:AC5"/>
     <mergeCell ref="D14:D17"/>
@@ -3383,17 +3411,6 @@
     <mergeCell ref="U7:Z7"/>
     <mergeCell ref="AA7:AF7"/>
     <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="C34:C45"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="B10:B45"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C22:C33"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D33"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">

--- a/GTD.xlsx
+++ b/GTD.xlsx
@@ -1022,24 +1022,51 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,33 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -1641,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1704,37 +1704,37 @@
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41" t="s">
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41">
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54">
         <f>SUM(J9:AF9)</f>
         <v>184</v>
       </c>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="56"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="65"/>
     </row>
     <row r="6" spans="2:32" ht="17.25" customHeight="1">
       <c r="C6" s="18"/>
@@ -1743,38 +1743,38 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49" t="s">
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49" t="s">
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49" t="s">
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="50"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="59"/>
     </row>
     <row r="7" spans="2:32" ht="17.25" customHeight="1">
       <c r="C7" s="4"/>
@@ -1783,30 +1783,30 @@
       <c r="F7" s="19"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="55"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="64"/>
     </row>
     <row r="8" spans="2:32" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="D8" s="6"/>
@@ -1979,13 +1979,13 @@
       </c>
     </row>
     <row r="10" spans="2:32" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -2026,8 +2026,8 @@
       <c r="AF10" s="32"/>
     </row>
     <row r="11" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B11" s="63"/>
-      <c r="C11" s="58"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="44"/>
       <c r="E11" s="14" t="s">
         <v>48</v>
@@ -2067,8 +2067,8 @@
       <c r="AF11" s="33"/>
     </row>
     <row r="12" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="63"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="44"/>
       <c r="E12" s="14" t="s">
         <v>49</v>
@@ -2108,9 +2108,9 @@
       <c r="AF12" s="33"/>
     </row>
     <row r="13" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="61"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2141,9 +2141,9 @@
       <c r="AF13" s="33"/>
     </row>
     <row r="14" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="63"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="42" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="46" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -2186,14 +2186,14 @@
       <c r="AF14" s="33"/>
     </row>
     <row r="15" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="63"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>29</v>
@@ -2204,8 +2204,12 @@
       <c r="I15" s="26"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="L15" s="30">
+        <v>2</v>
+      </c>
+      <c r="M15" s="30">
+        <v>1</v>
+      </c>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -2227,9 +2231,9 @@
       <c r="AF15" s="33"/>
     </row>
     <row r="16" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="63"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="42"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -2260,9 +2264,9 @@
       <c r="AF16" s="33"/>
     </row>
     <row r="17" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B17" s="63"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="42"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -2293,9 +2297,9 @@
       <c r="AF17" s="33"/>
     </row>
     <row r="18" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B18" s="63"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="43"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -2326,8 +2330,8 @@
       <c r="AF18" s="33"/>
     </row>
     <row r="19" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B19" s="63"/>
-      <c r="C19" s="58"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="44"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -2359,8 +2363,8 @@
       <c r="AF19" s="33"/>
     </row>
     <row r="20" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B20" s="63"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="44"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -2392,9 +2396,9 @@
       <c r="AF20" s="33"/>
     </row>
     <row r="21" spans="2:32" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B21" s="63"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="45"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2425,18 +2429,18 @@
       <c r="AF21" s="35"/>
     </row>
     <row r="22" spans="2:32" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="63"/>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="43" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>40</v>
@@ -2449,8 +2453,12 @@
       <c r="K22" s="30">
         <v>2</v>
       </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="L22" s="30">
+        <v>0</v>
+      </c>
+      <c r="M22" s="30">
+        <v>0</v>
+      </c>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
@@ -2472,8 +2480,8 @@
       <c r="AF22" s="36"/>
     </row>
     <row r="23" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B23" s="63"/>
-      <c r="C23" s="58"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="44"/>
       <c r="E23" s="14" t="s">
         <v>31</v>
@@ -2513,8 +2521,8 @@
       <c r="AF23" s="33"/>
     </row>
     <row r="24" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B24" s="63"/>
-      <c r="C24" s="58"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="44"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -2546,9 +2554,9 @@
       <c r="AF24" s="33"/>
     </row>
     <row r="25" spans="2:32" s="17" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B25" s="63"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="61"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -2579,16 +2587,16 @@
       <c r="AF25" s="33"/>
     </row>
     <row r="26" spans="2:32" s="17" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B26" s="63"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="47" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>40</v>
@@ -2601,8 +2609,12 @@
       <c r="K26" s="30">
         <v>1</v>
       </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
+      <c r="L26" s="30">
+        <v>0</v>
+      </c>
+      <c r="M26" s="30">
+        <v>1</v>
+      </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
@@ -2624,8 +2636,8 @@
       <c r="AF26" s="33"/>
     </row>
     <row r="27" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B27" s="63"/>
-      <c r="C27" s="58"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="44"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -2657,8 +2669,8 @@
       <c r="AF27" s="33"/>
     </row>
     <row r="28" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B28" s="63"/>
-      <c r="C28" s="58"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="44"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -2690,9 +2702,9 @@
       <c r="AF28" s="33"/>
     </row>
     <row r="29" spans="2:32" s="17" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B29" s="63"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="45"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -2723,9 +2735,9 @@
       <c r="AF29" s="33"/>
     </row>
     <row r="30" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B30" s="63"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="43" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="47" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="14" t="s">
@@ -2766,8 +2778,8 @@
       <c r="AF30" s="33"/>
     </row>
     <row r="31" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B31" s="63"/>
-      <c r="C31" s="58"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="44"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -2799,8 +2811,8 @@
       <c r="AF31" s="33"/>
     </row>
     <row r="32" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B32" s="63"/>
-      <c r="C32" s="58"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="44"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -2832,9 +2844,9 @@
       <c r="AF32" s="33"/>
     </row>
     <row r="33" spans="2:32" s="17" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B33" s="63"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -2865,11 +2877,11 @@
       <c r="AF33" s="35"/>
     </row>
     <row r="34" spans="2:32" s="17" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B34" s="63"/>
-      <c r="C34" s="57" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="43" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2910,8 +2922,8 @@
       <c r="AF34" s="36"/>
     </row>
     <row r="35" spans="2:32" s="17" customFormat="1" ht="16.5">
-      <c r="B35" s="63"/>
-      <c r="C35" s="58"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="44"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -2943,8 +2955,8 @@
       <c r="AF35" s="33"/>
     </row>
     <row r="36" spans="2:32" ht="15">
-      <c r="B36" s="63"/>
-      <c r="C36" s="58"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="44"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -2976,9 +2988,9 @@
       <c r="AF36" s="33"/>
     </row>
     <row r="37" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B37" s="63"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="61"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -3009,9 +3021,9 @@
       <c r="AF37" s="33"/>
     </row>
     <row r="38" spans="2:32" ht="15">
-      <c r="B38" s="63"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="42" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="46" t="s">
         <v>47</v>
       </c>
       <c r="E38" s="14"/>
@@ -3044,9 +3056,9 @@
       <c r="AF38" s="33"/>
     </row>
     <row r="39" spans="2:32" ht="15">
-      <c r="B39" s="63"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="42"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -3077,9 +3089,9 @@
       <c r="AF39" s="33"/>
     </row>
     <row r="40" spans="2:32" ht="15">
-      <c r="B40" s="63"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="42"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -3110,9 +3122,9 @@
       <c r="AF40" s="33"/>
     </row>
     <row r="41" spans="2:32" ht="15">
-      <c r="B41" s="63"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="42"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -3143,9 +3155,9 @@
       <c r="AF41" s="33"/>
     </row>
     <row r="42" spans="2:32" ht="15">
-      <c r="B42" s="63"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="43"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -3176,8 +3188,8 @@
       <c r="AF42" s="33"/>
     </row>
     <row r="43" spans="2:32" ht="15">
-      <c r="B43" s="63"/>
-      <c r="C43" s="58"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="44"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -3209,8 +3221,8 @@
       <c r="AF43" s="33"/>
     </row>
     <row r="44" spans="2:32" ht="15">
-      <c r="B44" s="63"/>
-      <c r="C44" s="58"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="44"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -3242,9 +3254,9 @@
       <c r="AF44" s="33"/>
     </row>
     <row r="45" spans="2:32" ht="15.75" thickBot="1">
-      <c r="B45" s="64"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="45"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -3301,11 +3313,11 @@
       </c>
       <c r="L46" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46" s="37">
         <f t="shared" si="1"/>
@@ -3387,17 +3399,6 @@
   </sheetData>
   <autoFilter ref="C9:H45"/>
   <mergeCells count="24">
-    <mergeCell ref="C34:C45"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="B10:B45"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C22:C33"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D33"/>
     <mergeCell ref="I5:T5"/>
     <mergeCell ref="U5:AC5"/>
     <mergeCell ref="D14:D17"/>
@@ -3411,6 +3412,17 @@
     <mergeCell ref="U7:Z7"/>
     <mergeCell ref="AA7:AF7"/>
     <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="C34:C45"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="B10:B45"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C22:C33"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D33"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">

--- a/GTD.xlsx
+++ b/GTD.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Week 3</t>
   </si>
@@ -181,6 +181,21 @@
   </si>
   <si>
     <t>Ghost</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>LA Chapter*1</t>
+  </si>
+  <si>
+    <t>Pre-Learning</t>
+  </si>
+  <si>
+    <t>Graph Theory</t>
+  </si>
+  <si>
+    <t>Run Act1</t>
   </si>
 </sst>
 </file>
@@ -881,57 +896,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="32" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,12 +960,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1150,16 +1165,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1168,8 +1183,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9696449" y="962025"/>
-          <a:ext cx="1" cy="8086725"/>
+          <a:off x="9953624" y="942975"/>
+          <a:ext cx="1" cy="11668125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1489,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1558,34 +1573,34 @@
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34" t="s">
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="45"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="49"/>
     </row>
     <row r="6" spans="2:32" ht="17.25" customHeight="1">
       <c r="C6" s="16"/>
@@ -1596,38 +1611,38 @@
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="38" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="38" t="s">
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="39"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="43"/>
     </row>
     <row r="7" spans="2:32" ht="17.25" customHeight="1">
       <c r="C7" s="4"/>
@@ -1636,30 +1651,30 @@
       <c r="F7" s="17"/>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="48"/>
     </row>
     <row r="8" spans="2:32" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="D8" s="6"/>
@@ -1762,15 +1777,12 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="30">
-        <v>88</v>
-      </c>
+      <c r="K9" s="30"/>
       <c r="L9" s="30">
-        <f t="shared" ref="L9:AF9" si="0">K9-4</f>
         <v>84</v>
       </c>
       <c r="M9" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L9:AF9" si="0">L9-4</f>
         <v>80</v>
       </c>
       <c r="N9" s="30">
@@ -1851,22 +1863,30 @@
       </c>
     </row>
     <row r="10" spans="2:32" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="20"/>
+      <c r="E10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13">
+        <v>8</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
@@ -1890,16 +1910,16 @@
       <c r="AF10" s="25"/>
     </row>
     <row r="11" spans="2:32" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="18"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -1923,16 +1943,16 @@
       <c r="AF11" s="26"/>
     </row>
     <row r="12" spans="2:32" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="18"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -1956,16 +1976,16 @@
       <c r="AF12" s="26"/>
     </row>
     <row r="13" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="18"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
@@ -1989,16 +2009,16 @@
       <c r="AF13" s="26"/>
     </row>
     <row r="14" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="18"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -2022,16 +2042,16 @@
       <c r="AF14" s="26"/>
     </row>
     <row r="15" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="53"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="18"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -2055,18 +2075,18 @@
       <c r="AF15" s="26"/>
     </row>
     <row r="16" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="54" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="37" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="18"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
@@ -2090,16 +2110,16 @@
       <c r="AF16" s="26"/>
     </row>
     <row r="17" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="54"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="18"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
@@ -2123,16 +2143,16 @@
       <c r="AF17" s="26"/>
     </row>
     <row r="18" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="54"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="18"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
@@ -2156,16 +2176,16 @@
       <c r="AF18" s="26"/>
     </row>
     <row r="19" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="54"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="18"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -2189,16 +2209,16 @@
       <c r="AF19" s="26"/>
     </row>
     <row r="20" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="54"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="18"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
@@ -2222,16 +2242,16 @@
       <c r="AF20" s="26"/>
     </row>
     <row r="21" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="54"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="18"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
@@ -2255,16 +2275,16 @@
       <c r="AF21" s="26"/>
     </row>
     <row r="22" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="32"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="18"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
@@ -2288,16 +2308,16 @@
       <c r="AF22" s="26"/>
     </row>
     <row r="23" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="32"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="18"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
@@ -2321,16 +2341,16 @@
       <c r="AF23" s="26"/>
     </row>
     <row r="24" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="18"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
@@ -2354,16 +2374,16 @@
       <c r="AF24" s="26"/>
     </row>
     <row r="25" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="18"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
@@ -2387,16 +2407,16 @@
       <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="32"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="18"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
@@ -2420,16 +2440,16 @@
       <c r="AF26" s="26"/>
     </row>
     <row r="27" spans="2:32" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="18"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
@@ -2453,20 +2473,28 @@
       <c r="AF27" s="26"/>
     </row>
     <row r="28" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="18"/>
+      <c r="E28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="13">
+        <v>16</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
@@ -2490,16 +2518,16 @@
       <c r="AF28" s="26"/>
     </row>
     <row r="29" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="55"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="18"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
@@ -2523,16 +2551,16 @@
       <c r="AF29" s="26"/>
     </row>
     <row r="30" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="55"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="18"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
@@ -2556,16 +2584,16 @@
       <c r="AF30" s="26"/>
     </row>
     <row r="31" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="55"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="18"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
@@ -2589,16 +2617,16 @@
       <c r="AF31" s="26"/>
     </row>
     <row r="32" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="55"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="18"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
@@ -2622,16 +2650,16 @@
       <c r="AF32" s="26"/>
     </row>
     <row r="33" spans="2:32" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="55"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="18"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
@@ -2655,18 +2683,26 @@
       <c r="AF33" s="26"/>
     </row>
     <row r="34" spans="2:32" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="55" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="18"/>
+      <c r="E34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="13">
+        <v>8</v>
+      </c>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
@@ -2690,16 +2726,16 @@
       <c r="AF34" s="26"/>
     </row>
     <row r="35" spans="2:32" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="55"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="18"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
@@ -2723,16 +2759,16 @@
       <c r="AF35" s="26"/>
     </row>
     <row r="36" spans="2:32" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="55"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="18"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
@@ -2756,16 +2792,16 @@
       <c r="AF36" s="26"/>
     </row>
     <row r="37" spans="2:32" s="15" customFormat="1" ht="16.5">
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="55"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="18"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
@@ -2789,16 +2825,16 @@
       <c r="AF37" s="26"/>
     </row>
     <row r="38" spans="2:32" s="15" customFormat="1" ht="16.5">
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="55"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="18"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
@@ -2822,16 +2858,16 @@
       <c r="AF38" s="26"/>
     </row>
     <row r="39" spans="2:32" s="15" customFormat="1" ht="16.5">
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="55"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="18"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
@@ -2855,18 +2891,26 @@
       <c r="AF39" s="26"/>
     </row>
     <row r="40" spans="2:32" s="15" customFormat="1" ht="16.5">
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="55" t="s">
+      <c r="B40" s="52"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="18"/>
+      <c r="E40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="13">
+        <v>16</v>
+      </c>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
@@ -2890,16 +2934,16 @@
       <c r="AF40" s="26"/>
     </row>
     <row r="41" spans="2:32" s="15" customFormat="1" ht="16.5">
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="55"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="18"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
@@ -2923,16 +2967,16 @@
       <c r="AF41" s="26"/>
     </row>
     <row r="42" spans="2:32" s="15" customFormat="1" ht="16.5">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="55"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="18"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
@@ -2956,16 +3000,16 @@
       <c r="AF42" s="26"/>
     </row>
     <row r="43" spans="2:32" s="15" customFormat="1" ht="16.5">
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="55"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="18"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
@@ -2989,16 +3033,16 @@
       <c r="AF43" s="26"/>
     </row>
     <row r="44" spans="2:32" s="15" customFormat="1" ht="16.5">
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="55"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="18"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
@@ -3022,16 +3066,16 @@
       <c r="AF44" s="26"/>
     </row>
     <row r="45" spans="2:32" s="15" customFormat="1" ht="16.5">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="55"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="18"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
@@ -3055,20 +3099,28 @@
       <c r="AF45" s="26"/>
     </row>
     <row r="46" spans="2:32" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B46" s="46"/>
-      <c r="C46" s="47" t="s">
+      <c r="B46" s="52"/>
+      <c r="C46" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="18"/>
+      <c r="E46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="13">
+        <v>16</v>
+      </c>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
@@ -3092,16 +3144,16 @@
       <c r="AF46" s="26"/>
     </row>
     <row r="47" spans="2:32" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="55"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="18"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
@@ -3125,16 +3177,16 @@
       <c r="AF47" s="26"/>
     </row>
     <row r="48" spans="2:32" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="55"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="18"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
@@ -3158,16 +3210,16 @@
       <c r="AF48" s="26"/>
     </row>
     <row r="49" spans="2:32" s="15" customFormat="1" ht="16.5">
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="55"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="18"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
@@ -3191,16 +3243,16 @@
       <c r="AF49" s="26"/>
     </row>
     <row r="50" spans="2:32" ht="15">
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="55"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="18"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
@@ -3224,16 +3276,16 @@
       <c r="AF50" s="26"/>
     </row>
     <row r="51" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="55"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="18"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
       <c r="N51" s="18"/>
@@ -3257,18 +3309,26 @@
       <c r="AF51" s="26"/>
     </row>
     <row r="52" spans="2:32" ht="15">
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="55" t="s">
+      <c r="B52" s="52"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="18"/>
+      <c r="E52" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="13">
+        <v>8</v>
+      </c>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
@@ -3292,16 +3352,16 @@
       <c r="AF52" s="26"/>
     </row>
     <row r="53" spans="2:32" ht="15">
-      <c r="B53" s="46"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="55"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="18"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
@@ -3325,16 +3385,16 @@
       <c r="AF53" s="26"/>
     </row>
     <row r="54" spans="2:32" ht="15">
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="55"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="18"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
@@ -3358,16 +3418,16 @@
       <c r="AF54" s="26"/>
     </row>
     <row r="55" spans="2:32" ht="15">
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="55"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="51"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="18"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
@@ -3391,16 +3451,16 @@
       <c r="AF55" s="26"/>
     </row>
     <row r="56" spans="2:32" ht="15">
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="55"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="18"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
@@ -3424,16 +3484,16 @@
       <c r="AF56" s="26"/>
     </row>
     <row r="57" spans="2:32" ht="15">
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="55"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="18"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
@@ -3457,16 +3517,16 @@
       <c r="AF57" s="26"/>
     </row>
     <row r="58" spans="2:32" ht="15">
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="32"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="18"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
@@ -3490,16 +3550,16 @@
       <c r="AF58" s="26"/>
     </row>
     <row r="59" spans="2:32" ht="15">
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="32"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="18"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
@@ -3523,16 +3583,16 @@
       <c r="AF59" s="26"/>
     </row>
     <row r="60" spans="2:32" ht="15">
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="32"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="18"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
@@ -3556,16 +3616,16 @@
       <c r="AF60" s="26"/>
     </row>
     <row r="61" spans="2:32" ht="15">
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="32"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="18"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
@@ -3589,16 +3649,16 @@
       <c r="AF61" s="26"/>
     </row>
     <row r="62" spans="2:32" ht="15">
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="32"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="18"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
@@ -3622,16 +3682,16 @@
       <c r="AF62" s="26"/>
     </row>
     <row r="63" spans="2:32" ht="15.75" thickBot="1">
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="32"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="19"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
       <c r="L63" s="19"/>
       <c r="M63" s="19"/>
       <c r="N63" s="19"/>
@@ -3665,7 +3725,7 @@
       <c r="G64" s="28"/>
       <c r="H64" s="28">
         <f t="shared" ref="H64:I64" si="1">SUM(H10:H63)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I64" s="28">
         <f t="shared" si="1"/>
@@ -3766,6 +3826,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C46:C63"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="B10:B63"/>
+    <mergeCell ref="C10:C27"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="C28:C45"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
     <mergeCell ref="I5:T5"/>
     <mergeCell ref="U5:AC5"/>
     <mergeCell ref="D16:D21"/>
@@ -3779,17 +3850,6 @@
     <mergeCell ref="U7:Z7"/>
     <mergeCell ref="AA7:AF7"/>
     <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="C46:C63"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="B10:B63"/>
-    <mergeCell ref="C10:C27"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="C28:C45"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
